--- a/Level1 theory.xlsx
+++ b/Level1 theory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmamartin\Projects\curriculumTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A639D8-EE12-4536-A1C2-54132D7A007E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352B7EA-DE78-4E16-81D6-218EB971B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1380" windowWidth="25500" windowHeight="13560" activeTab="1" xr2:uid="{916208D2-3521-43AC-A1C2-D65C4F795FA0}"/>
+    <workbookView xWindow="30225" yWindow="1065" windowWidth="25500" windowHeight="13560" activeTab="4" xr2:uid="{916208D2-3521-43AC-A1C2-D65C4F795FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="MILO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="BS11002" sheetId="3" r:id="rId3"/>
     <sheet name="BS12001" sheetId="4" r:id="rId4"/>
     <sheet name="BS12002" sheetId="5" r:id="rId5"/>
+    <sheet name="BS11005" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'BS11005'!$B$14:$B$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="380">
   <si>
     <t>BS11001</t>
   </si>
@@ -826,6 +830,9 @@
     <t>Week 22</t>
   </si>
   <si>
+    <t>Week 23</t>
+  </si>
+  <si>
     <t>Understand the principles of polygenic inheritance and quantitative traits</t>
   </si>
   <si>
@@ -1088,6 +1095,9 @@
   </si>
   <si>
     <t>Explain the developmental origins of the trachea and left/right lung lobes from specified placodes which occur at locations along the ventral foregut</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>List the three types of muscle found in vertebrates and summarise the function for each. Categorise each type according to appearance (viewed under a light microscope) and how theyare controlled.</t>
@@ -1330,6 +1340,111 @@
       <t xml:space="preserve"> Molecules must have the correct ‘orientation’ upon collision; Molecules when they do collide with the correct ‘orientation’ they MUST have sufficient energy to overcome the activation energy barrier (be able to climb to the top of the hill)</t>
     </r>
   </si>
+  <si>
+    <t>BS11005</t>
+  </si>
+  <si>
+    <t>Demonstrate the importance of key Biophysical concepts in an analytical context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe concepts in basic Bioinorganic Chemistry with respect to trends in the periodic table and recognising and naming of key functional groups </t>
+  </si>
+  <si>
+    <t>Summarise the importance of a range of Biophysical concepts to the Biological and Biomedical Sciences</t>
+  </si>
+  <si>
+    <t>Problem solve by being able to perform calculations involving balancing equations, moles and molarity and the practical application of making and diluting molar solutions.</t>
+  </si>
+  <si>
+    <t>Demonstrate reflection and responsibility for personal learning (e.g. self-evaluation, setting goals, using initiative)</t>
+  </si>
+  <si>
+    <t>Evaluate own learning, identifying strengths and weaknesses within criteria largely set by others</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of moles and molarity</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of converting between micromoles and millimoles and dilution calculations in general</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of balancing equations</t>
+  </si>
+  <si>
+    <t>Be able to recognise and describe a specific example of oxidation numbers</t>
+  </si>
+  <si>
+    <t>Be able to recognise and solve problems to a specified number of decimal places or significant figures</t>
+  </si>
+  <si>
+    <t>Be able to use log rules to solve basic problems and be able to convert between logarithms and powers and powers to logaritims</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of the demise of classical physics and the birth of quantum mechanics</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Schrodinger's equation and Bohr's equation</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of sub-orbitals and quantum numbers</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Bonding Theories, Lewis structures, Formal charge and VSEPR theory</t>
+  </si>
+  <si>
+    <t>Be able to recognise and describe a specific examples of ions used in Bioinorganic Chemistry and the resulting electronic configurations and the structures and function of haemoglobin, myoglobin</t>
+  </si>
+  <si>
+    <t>Demonstrate application of Ohms law and electrical principals as applied to the Biological and Biomedical Sciences.</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Diffusion with particular reference to 'flux'</t>
+  </si>
+  <si>
+    <t>Understand the properties of a fluid</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of the different units of pressure that are used</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Pascals Principle</t>
+  </si>
+  <si>
+    <t>Demonstrate an Understanding of Bernoulli's equation</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of the link between viscosity and Poiseuille's law</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Turbulent Flow</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of Blood Flow and the associated energetics</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of the topic of motion with reference to Newtons 3 laws and energy consumption through exercise, angular motion through the battle between centrifugal and centripetal forces.</t>
+  </si>
+  <si>
+    <t>Demonstrate an understanding of the topic of the physics of the pendulum and statics, in particular what is a torque and examples of 1st, 2nd and 3rd class levers</t>
+  </si>
+  <si>
+    <t>bs11002</t>
+  </si>
+  <si>
+    <t>bs12001</t>
+  </si>
+  <si>
+    <t>bs12002</t>
+  </si>
+  <si>
+    <t>BS110xx</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>week 16</t>
+  </si>
 </sst>
 </file>
 
@@ -1394,12 +1509,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Inherit"/>
@@ -1422,6 +1531,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1443,7 +1559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1459,7 +1575,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,20 +1587,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9497D419-3C24-4417-B120-AD895B0457E0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2180,6 +2291,54 @@
         <v>24</v>
       </c>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2187,2383 +2346,4309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CC99F8-6EC8-43E0-97A0-C7A6B7A2E232}">
-  <dimension ref="A1:B68"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="33">
+      <c r="D1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="33">
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="33">
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33">
       <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="33">
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33">
       <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="33">
+      <c r="D28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33">
       <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="D30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="D35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="33">
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33">
       <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="33">
+      <c r="D38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33">
       <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="D40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="33">
+      <c r="D41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="33">
       <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="33">
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="33">
       <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="D43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="33">
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="33">
       <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="D45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="D46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="33">
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33">
       <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="33">
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="33">
       <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="33">
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33">
       <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="D53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="33">
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="33">
       <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="66">
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="66">
       <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="33">
+      <c r="C56" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="33">
       <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="33">
+      <c r="D57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="33">
       <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="66">
+      <c r="D58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="66">
       <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="D59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="33">
+      <c r="C60" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="33">
       <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="33">
+      <c r="D61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="33">
       <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="33">
+      <c r="D62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33">
       <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="49.5">
+      <c r="D63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="49.5">
       <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="49.5">
+      <c r="D64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="49.5">
       <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="33">
+      <c r="D65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="33">
       <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="33">
+      <c r="D67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="33">
       <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>141</v>
       </c>
+      <c r="D68" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922BF6DA-13BF-4AA4-86F3-1C3B80CC56E6}">
-  <dimension ref="A1:F49"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="82.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="3" max="3" width="82.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="78.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33">
-      <c r="A1">
+    <row r="1" spans="1:7" ht="33">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2">
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3">
+      <c r="D2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4">
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6">
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7">
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8">
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5">
-      <c r="A10">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5">
-      <c r="A11">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13">
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="99">
-      <c r="A14">
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>20</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5">
-      <c r="A15">
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5">
-      <c r="B18" s="4" t="s">
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5">
-      <c r="B19" s="4" t="s">
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="B20" s="4" t="s">
+      <c r="D19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5">
-      <c r="B21" s="4" t="s">
+      <c r="D20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5">
-      <c r="B22" s="4" t="s">
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5">
-      <c r="B23" s="4" t="s">
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5">
-      <c r="B24" s="4" t="s">
+      <c r="D23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5">
-      <c r="A25">
+      <c r="D24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5">
-      <c r="B26" s="4" t="s">
+      <c r="D25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
         <v>38</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:6" ht="33">
+      <c r="A27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5">
-      <c r="B28" s="4" t="s">
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5">
-      <c r="B29" s="4" t="s">
+      <c r="D28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5">
-      <c r="B30" s="4" t="s">
+      <c r="D29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5">
-      <c r="A31">
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="D31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B32">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="3" t="s">
+      <c r="D32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="3" t="s">
+      <c r="D33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="D34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="3" t="s">
+      <c r="D35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="D36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49"/>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B67D5F-55A6-45B8-A4AC-EA6AD0A2B491}">
-  <dimension ref="A1:B64"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="87.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
+      <c r="D1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
+      <c r="D4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
+      <c r="D6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
       <c r="A15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5">
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5">
+      <c r="D16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5">
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5">
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5">
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5">
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5">
+      <c r="D21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5">
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5">
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5">
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5">
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="49.5">
       <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5">
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B29" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5">
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5">
+    <row r="35" spans="1:4" ht="49.5">
       <c r="A35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="16.5">
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="16.5">
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B38" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5">
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="C39" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5">
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5">
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.5">
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16.5">
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16.5">
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16.5">
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="C45" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16.5">
+      <c r="D45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="C46" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16.5">
+      <c r="D46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.5">
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>375</v>
+      </c>
+      <c r="B48" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5">
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="C49" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5">
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5">
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B51" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="C51" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5">
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>375</v>
+      </c>
+      <c r="B52" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5">
+      <c r="C52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30">
       <c r="A53" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5">
+      <c r="C53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5">
+      <c r="C54" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16.5">
+      <c r="C55" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
+        <v>375</v>
+      </c>
+      <c r="B56" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16.5">
+      <c r="C56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16.5">
+      <c r="C57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16.5">
+      <c r="C58" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s">
         <v>201</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s">
         <v>202</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>375</v>
+      </c>
+      <c r="B61" t="s">
         <v>202</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>375</v>
+      </c>
+      <c r="B62" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>215</v>
+      <c r="C64" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA893FA-A5E0-4980-9C51-57D3D9D0765E}">
-  <dimension ref="A1:B116"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="131.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="104" style="3" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30">
+      <c r="A18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30">
+      <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>376</v>
+      </c>
+      <c r="B59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>376</v>
+      </c>
+      <c r="B62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30">
+      <c r="A63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30">
+      <c r="A64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30">
+      <c r="A65" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="26.25">
+      <c r="A69" t="s">
+        <v>376</v>
+      </c>
+      <c r="B69" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" t="s">
+        <v>317</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30">
+      <c r="A75" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>376</v>
+      </c>
+      <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30">
+      <c r="A79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>376</v>
+      </c>
+      <c r="B85" t="s">
+        <v>317</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>376</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" t="s">
+        <v>317</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>376</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>376</v>
+      </c>
+      <c r="B92" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" t="s">
+        <v>331</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30">
+      <c r="A101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" t="s">
+        <v>331</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>376</v>
+      </c>
+      <c r="B102" t="s">
+        <v>331</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>376</v>
+      </c>
+      <c r="B105" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>376</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30">
+      <c r="A107" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>376</v>
+      </c>
+      <c r="B109" t="s">
+        <v>331</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>376</v>
+      </c>
+      <c r="B110" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>376</v>
+      </c>
+      <c r="B111" t="s">
+        <v>331</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>376</v>
+      </c>
+      <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30">
+      <c r="A113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>376</v>
+      </c>
+      <c r="B115" t="s">
+        <v>331</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D116" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56011E33-FEFE-4C1F-A663-D90E494F6D37}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5">
       <c r="A1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5">
       <c r="A2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5">
       <c r="A3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
       <c r="A4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5">
       <c r="A5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.25" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
       <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B6" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5">
       <c r="A7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" customHeight="1">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5">
       <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.25" customHeight="1">
+        <v>229</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5">
       <c r="A9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.25" customHeight="1">
+        <v>229</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5">
       <c r="A10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>229</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5">
       <c r="A11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="7" t="s">
         <v>229</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>277</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5">
       <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5">
       <c r="A14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5">
       <c r="A15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5">
       <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>292</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>257</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>257</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>257</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>257</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>257</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>257</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>257</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>276</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>276</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>276</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>276</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>276</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>276</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>276</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>276</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>276</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>315</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>315</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>315</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>315</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>315</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>315</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>315</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>315</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>315</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>315</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>315</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>315</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>315</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>315</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>315</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>315</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>315</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>315</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>315</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>329</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>329</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>329</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>329</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>329</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>329</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>329</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>329</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>329</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>329</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>329</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>329</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>329</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>329</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>329</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>329</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>329</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>329</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>329</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>329</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>340</v>
+      <c r="B22" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <autoFilter ref="B14:B20" xr:uid="{56011E33-FEFE-4C1F-A663-D90E494F6D37}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>